--- a/data/long_razon/P23_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_3-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 24,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 38,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 33,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 14,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 19,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 18,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 23,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 6,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 2,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-41,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-30,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-65,31; -7,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 195,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,65; 30,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 53,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,56; -2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 83,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,14; -1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 20,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 10,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 9,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_3-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2149543471977028</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.01744916942708086</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1343113508343322</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1012886931326264</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.001835782562680617</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2257730735169869</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.0619446742033619</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.009493069193771965</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1835271921730043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.383004972596767</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.257525636853015</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1439847520776337</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.10040990972801</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1985528944599499</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.02122407206861891</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2183844158339595</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1529396940804399</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.03769375071137405</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.05006245353356959</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2647386659302709</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4817121447674764</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3350347252016488</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2276743509286299</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5909254485954175</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.1060495494952048</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1694574196631917</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.424887787032927</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1038265795770007</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.0917426823196533</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.05353134573136028</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.01053066135660767</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.148488083701469</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.06717527718284777</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.05563715928934389</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1221553732836043</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.005130278889132311</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.338426591616253</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3173060526445818</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3154036962216832</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2209450399338418</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3074956091243355</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1507285413335184</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2182273416759268</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2533442817770406</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1816206700064187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1750470530092957</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1651058573936247</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2862533586667795</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2313133910831272</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.0613037583785161</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3686585688500003</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1285513556908134</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.03245431449040537</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.212167409822656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.3979245492063004</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.794685753198622</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4549497859169671</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1915560243742906</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.03331071471915588</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.6812056710037702</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.3093531387567324</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3306372962414892</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.5459944748895469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.638883477462355</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1564534257812506</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2434920526618443</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4858781069226039</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3662964706901101</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.04104877377805275</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5021179282730033</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.05743775013521628</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.01657586024588248</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.01996480547876553</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.053636657772413</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.835473546669032</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2488640720131425</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5022228479557501</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.849835407694256</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.03295278965304567</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.829653047752883</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.338675643287098</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2064593336531902</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02723619595336816</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.09825692350739977</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.01955264276295464</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.06904117498075588</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2039776715312975</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.09621109388495951</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.02340140715542544</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1512645030861129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3438413140475777</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1355430867857864</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1038648212927651</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.127784330304143</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1840004930331607</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.02427689807926926</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1990946648380941</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1222893794797631</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.01356362134571717</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.03049481658959158</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2242003333420989</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3534980005179162</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1636524759626115</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.06490677535751081</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4258938448664864</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.01601452871769774</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.0876851606302603</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3065054889786336</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
